--- a/OS Notes.xlsx
+++ b/OS Notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>OS</t>
   </si>
@@ -79,6 +79,23 @@
   <si>
     <t>An Occurance of EVENT from Software or Hardware creates INTERRUPT that signal to CPU.
 Software interrupt usually called as "System Call" or "Monitor Call"</t>
+  </si>
+  <si>
+    <t>Device Controller</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>each device (got unique number) creates interrupt, each interrupt contains pointer to "interrupt service routine"; when interrup occurs corresponding interrupt service gets executed;</t>
+  </si>
+  <si>
+    <t>-- All device Interaction to CPU, Shared Memory are through Device Controller
+-- All I/O devices attached to Device Controller;
+-- CPU and device controller executes CONCURRENTLY, COMPETE FOR SHARED MEM</t>
   </si>
 </sst>
 </file>
@@ -120,8 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -129,7 +149,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,94 +492,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E13"/>
+  <dimension ref="A3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="5" spans="2:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="13" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C5:D5"/>
